--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,26 +487,76 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Backward obstacle avoidance unavailable</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5-8</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>6</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>31-35</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Missing</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Calibrate Compass Before Takeoff</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32-35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>False</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/17/incorrect_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>5-8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -487,76 +487,26 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5-8</t>
+          <t>31-35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2. Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31-35</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Missing</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Calibrate Compass Before Takeoff</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>32-35</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>False</t>
         </is>
       </c>
     </row>
